--- a/Shared-Mobility Adventure/Map_creator_v0.01.xlsx
+++ b/Shared-Mobility Adventure/Map_creator_v0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UCD\2024_Semester 2\COMP30820 - Java Programming\GitHub\CarbonWars\Shared-Mobility Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233BE83-8F25-47FF-9F07-3B29F9308275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D5481-045D-4E84-AE8A-2D70D68A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C8CDC1DA-EFA6-4EFD-80A0-466DCFA479C2}"/>
   </bookViews>
@@ -248,18 +248,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -273,14 +266,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -295,34 +281,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF680B04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0E0D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,6 +462,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0E0D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF680B04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -533,6 +533,48 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF680B04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0E0D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1191,7 +1233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C829A0-8DAA-44B5-ADFD-74A674738FC1}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4347,19 +4391,19 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="18">
         <v>2</v>
@@ -4368,28 +4412,28 @@
         <v>2</v>
       </c>
       <c r="H17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P17" s="18">
         <v>2</v>
@@ -4398,37 +4442,37 @@
         <v>2</v>
       </c>
       <c r="R17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC17" s="18">
         <v>2</v>
@@ -4437,73 +4481,73 @@
         <v>2</v>
       </c>
       <c r="AE17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK17" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM17" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA17" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB17" s="18">
         <v>5</v>
@@ -4541,19 +4585,19 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="18">
         <v>2</v>
@@ -4562,28 +4606,28 @@
         <v>2</v>
       </c>
       <c r="H18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P18" s="18">
         <v>2</v>
@@ -4592,37 +4636,37 @@
         <v>2</v>
       </c>
       <c r="R18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC18" s="18">
         <v>2</v>
@@ -4631,73 +4675,73 @@
         <v>2</v>
       </c>
       <c r="AE18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM18" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN18" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB18" s="18">
         <v>5</v>
@@ -4735,19 +4779,19 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="18">
         <v>2</v>
@@ -4756,28 +4800,28 @@
         <v>2</v>
       </c>
       <c r="H19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="18">
         <v>2</v>
@@ -4786,37 +4830,37 @@
         <v>2</v>
       </c>
       <c r="R19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC19" s="18">
         <v>2</v>
@@ -4825,28 +4869,28 @@
         <v>2</v>
       </c>
       <c r="AE19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM19" s="18">
         <v>2</v>
@@ -4855,43 +4899,43 @@
         <v>2</v>
       </c>
       <c r="AO19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA19" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB19" s="18">
         <v>5</v>
@@ -5732,16 +5776,16 @@
         <v>2</v>
       </c>
       <c r="J24" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="18">
         <v>2</v>
@@ -5926,16 +5970,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="18">
         <v>1</v>
@@ -6120,16 +6164,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="18">
         <v>1</v>
@@ -6237,10 +6281,10 @@
         <v>2</v>
       </c>
       <c r="AW26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY26" s="18">
         <v>2</v>
@@ -6314,16 +6358,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="18">
         <v>1</v>
@@ -6431,10 +6475,10 @@
         <v>2</v>
       </c>
       <c r="AW27" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX27" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY27" s="18">
         <v>2</v>
@@ -6508,16 +6552,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="18">
         <v>2</v>
@@ -6625,10 +6669,10 @@
         <v>2</v>
       </c>
       <c r="AW28" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX28" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY28" s="18">
         <v>2</v>
@@ -6819,10 +6863,10 @@
         <v>2</v>
       </c>
       <c r="AW29" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="18">
         <v>2</v>
@@ -7013,10 +7057,10 @@
         <v>2</v>
       </c>
       <c r="AW30" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" s="18">
         <v>2</v>
@@ -8227,167 +8271,187 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AB3">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:AB7">
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:BA11">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL18 BO8 A1:BA36">
-    <cfRule type="containsText" dxfId="5" priority="47" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="35" priority="53" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="48" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="54" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="44" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="33" priority="50" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="45" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="46" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="31" priority="52" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL18 A1:BA36">
-    <cfRule type="containsText" dxfId="0" priority="43" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="30" priority="49" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:BL36 AM14:AV22 W15:X19">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="5">
+  <conditionalFormatting sqref="AM14:AV22 W15:X19 A19:BL36">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AM24">
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:BA3">
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:BA7">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM14:AV22 W15:X19 A19:BL36">
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="9" priority="45" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="47" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="48" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:BA19">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="5">
+      <formula>NOT(ISERROR(SEARCH("5",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="4">
+      <formula>NOT(ISERROR(SEARCH("4",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shared-Mobility Adventure/Map_creator_v0.01.xlsx
+++ b/Shared-Mobility Adventure/Map_creator_v0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UCD\2024_Semester 2\COMP30820 - Java Programming\GitHub\CarbonWars\Shared-Mobility Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D5481-045D-4E84-AE8A-2D70D68A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233BE83-8F25-47FF-9F07-3B29F9308275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C8CDC1DA-EFA6-4EFD-80A0-466DCFA479C2}"/>
   </bookViews>
@@ -248,11 +248,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,7 +273,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -281,6 +295,34 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF680B04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0E0D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -462,48 +504,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0E0D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF680B04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -533,48 +533,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF680B04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0E0D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,9 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C829A0-8DAA-44B5-ADFD-74A674738FC1}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4391,19 +4347,19 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="18">
         <v>2</v>
@@ -4412,28 +4368,28 @@
         <v>2</v>
       </c>
       <c r="H17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P17" s="18">
         <v>2</v>
@@ -4442,37 +4398,37 @@
         <v>2</v>
       </c>
       <c r="R17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="18">
         <v>2</v>
@@ -4481,73 +4437,73 @@
         <v>2</v>
       </c>
       <c r="AE17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM17" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB17" s="18">
         <v>5</v>
@@ -4585,19 +4541,19 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="18">
         <v>2</v>
@@ -4606,28 +4562,28 @@
         <v>2</v>
       </c>
       <c r="H18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" s="18">
         <v>2</v>
@@ -4636,37 +4592,37 @@
         <v>2</v>
       </c>
       <c r="R18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="18">
         <v>2</v>
@@ -4675,73 +4631,73 @@
         <v>2</v>
       </c>
       <c r="AE18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB18" s="18">
         <v>5</v>
@@ -4779,19 +4735,19 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18">
         <v>2</v>
@@ -4800,28 +4756,28 @@
         <v>2</v>
       </c>
       <c r="H19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19" s="18">
         <v>2</v>
@@ -4830,37 +4786,37 @@
         <v>2</v>
       </c>
       <c r="R19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="18">
         <v>2</v>
@@ -4869,28 +4825,28 @@
         <v>2</v>
       </c>
       <c r="AE19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM19" s="18">
         <v>2</v>
@@ -4899,43 +4855,43 @@
         <v>2</v>
       </c>
       <c r="AO19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB19" s="18">
         <v>5</v>
@@ -5776,16 +5732,16 @@
         <v>2</v>
       </c>
       <c r="J24" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="18">
         <v>2</v>
@@ -5970,16 +5926,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="18">
         <v>1</v>
@@ -6164,16 +6120,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="18">
         <v>1</v>
@@ -6281,10 +6237,10 @@
         <v>2</v>
       </c>
       <c r="AW26" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="18">
         <v>2</v>
@@ -6358,16 +6314,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="18">
         <v>1</v>
@@ -6475,10 +6431,10 @@
         <v>2</v>
       </c>
       <c r="AW27" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY27" s="18">
         <v>2</v>
@@ -6552,16 +6508,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="18">
         <v>2</v>
@@ -6669,10 +6625,10 @@
         <v>2</v>
       </c>
       <c r="AW28" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX28" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="18">
         <v>2</v>
@@ -6863,10 +6819,10 @@
         <v>2</v>
       </c>
       <c r="AW29" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX29" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="18">
         <v>2</v>
@@ -7057,10 +7013,10 @@
         <v>2</v>
       </c>
       <c r="AW30" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX30" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY30" s="18">
         <v>2</v>
@@ -8271,187 +8227,167 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AB3">
-    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:AB7">
-    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:BA11">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL18 BO8 A1:BA36">
-    <cfRule type="containsText" dxfId="35" priority="53" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="5" priority="47" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="54" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="4" priority="48" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="50" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="3" priority="44" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="2" priority="45" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="52" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="1" priority="46" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL18 A1:BA36">
-    <cfRule type="containsText" dxfId="30" priority="49" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="0" priority="43" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM14:AV22 W15:X19 A19:BL36">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="5">
+  <conditionalFormatting sqref="A19:BL36 AM14:AV22 W15:X19">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:AM24">
-    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:BA3">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:BA7">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",AE5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM14:AV22 W15:X19 A19:BL36">
-    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="45" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="47" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="48" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:BA19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="5">
-      <formula>NOT(ISERROR(SEARCH("5",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="4">
-      <formula>NOT(ISERROR(SEARCH("4",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
